--- a/GraduationProject/sqlfarm.xlsx
+++ b/GraduationProject/sqlfarm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janguo/Desktop/University/GraduationProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E3F15F-9D31-424E-868E-F774CEF865DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78968E6-6CD7-524A-8231-152F38DD9839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="19840" firstSheet="5" activeTab="12" xr2:uid="{630B19FF-F18A-C849-8F55-050B62E33607}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19840" firstSheet="2" activeTab="4" xr2:uid="{630B19FF-F18A-C849-8F55-050B62E33607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1940,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9EC34-0C36-8F49-961B-E88C1AB5AFBE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2307,7 +2307,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2405,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D624279-C2CE-2440-8F57-5EA9C8888810}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
@@ -2518,7 +2518,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
